--- a/myapp/files/9_MethodComparePercent/Scenario 301.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 301.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>5068</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.857459969410268</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.0752688172043</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>1924</v>
+        <v>11228</v>
       </c>
       <c r="F3" t="n">
-        <v>2.27948581245187</v>
+        <v>1.89967650681501</v>
       </c>
       <c r="G3" t="n">
         <v>3</v>
@@ -631,10 +631,10 @@
         <v>4.22535211267606</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.88679245283019</v>
+        <v>1.7921146953405</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>999</v>
+        <v>27256</v>
       </c>
       <c r="F4" t="n">
-        <v>1.18357917185001</v>
+        <v>4.61146979602333</v>
       </c>
       <c r="G4" t="n">
         <v>2</v>
@@ -669,10 +669,10 @@
         <v>2.8169014084507</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>1.88679245283019</v>
+        <v>3.584229390681</v>
       </c>
       <c r="K4" t="n">
         <v>2</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>21717</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>3.67432086734072</v>
       </c>
       <c r="G5" t="n">
         <v>4</v>
@@ -707,10 +707,10 @@
         <v>5.63380281690141</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>3.584229390681</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>986</v>
+        <v>10880</v>
       </c>
       <c r="F6" t="n">
-        <v>1.16817724068479</v>
+        <v>1.8407980400915</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -745,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J6" t="n">
-        <v>1.88679245283019</v>
+        <v>2.5089605734767</v>
       </c>
       <c r="K6" t="n">
         <v>2</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>6710</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1.13527158538731</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.7921146953405</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>2028</v>
+        <v>31035</v>
       </c>
       <c r="F8" t="n">
-        <v>2.40270126177359</v>
+        <v>5.25084257116173</v>
       </c>
       <c r="G8" t="n">
         <v>2</v>
@@ -821,10 +821,10 @@
         <v>2.8169014084507</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J8" t="n">
-        <v>3.77358490566038</v>
+        <v>4.6594982078853</v>
       </c>
       <c r="K8" t="n">
         <v>5</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>13496</v>
+        <v>56447</v>
       </c>
       <c r="F9" t="n">
-        <v>15.9895740773651</v>
+        <v>9.55032416994897</v>
       </c>
       <c r="G9" t="n">
         <v>8</v>
@@ -859,16 +859,16 @@
         <v>11.2676056338028</v>
       </c>
       <c r="I9" t="n">
+        <v>25</v>
+      </c>
+      <c r="J9" t="n">
+        <v>8.96057347670251</v>
+      </c>
+      <c r="K9" t="n">
         <v>7</v>
       </c>
-      <c r="J9" t="n">
-        <v>13.2075471698113</v>
-      </c>
-      <c r="K9" t="n">
-        <v>6</v>
-      </c>
       <c r="L9" t="n">
-        <v>8.45070422535211</v>
+        <v>9.85915492957746</v>
       </c>
     </row>
     <row r="10">
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>12435</v>
+        <v>41585</v>
       </c>
       <c r="F10" t="n">
-        <v>14.7325395414964</v>
+        <v>7.03580758246369</v>
       </c>
       <c r="G10" t="n">
         <v>5</v>
@@ -897,16 +897,16 @@
         <v>7.04225352112676</v>
       </c>
       <c r="I10" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="J10" t="n">
-        <v>13.2075471698113</v>
+        <v>8.24372759856631</v>
       </c>
       <c r="K10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L10" t="n">
-        <v>11.2676056338028</v>
+        <v>8.45070422535211</v>
       </c>
     </row>
     <row r="11">
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>5635</v>
+        <v>22318</v>
       </c>
       <c r="F11" t="n">
-        <v>6.67614477815295</v>
+        <v>3.77600465613622</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -935,10 +935,10 @@
         <v>1.40845070422535</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J11" t="n">
-        <v>5.66037735849057</v>
+        <v>4.3010752688172</v>
       </c>
       <c r="K11" t="n">
         <v>4</v>
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>1364</v>
+        <v>3679</v>
       </c>
       <c r="F12" t="n">
-        <v>1.61601800841182</v>
+        <v>0.622453675505204</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
-        <v>1.88679245283019</v>
+        <v>1.7921146953405</v>
       </c>
       <c r="K12" t="n">
         <v>1</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>5521</v>
+        <v>28372</v>
       </c>
       <c r="F13" t="n">
-        <v>6.54108168947337</v>
+        <v>4.80028694792978</v>
       </c>
       <c r="G13" t="n">
         <v>3</v>
@@ -1011,10 +1011,10 @@
         <v>4.22535211267606</v>
       </c>
       <c r="I13" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="J13" t="n">
-        <v>9.43396226415094</v>
+        <v>6.81003584229391</v>
       </c>
       <c r="K13" t="n">
         <v>4</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>15942</v>
+        <v>67057</v>
       </c>
       <c r="F14" t="n">
-        <v>18.8875066642971</v>
+        <v>11.3454406410308</v>
       </c>
       <c r="G14" t="n">
         <v>6</v>
@@ -1049,10 +1049,10 @@
         <v>8.45070422535211</v>
       </c>
       <c r="I14" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="J14" t="n">
-        <v>11.3207547169811</v>
+        <v>9.31899641577061</v>
       </c>
       <c r="K14" t="n">
         <v>12</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>6583</v>
+        <v>55093</v>
       </c>
       <c r="F15" t="n">
-        <v>7.79930098927789</v>
+        <v>9.32123956091553</v>
       </c>
       <c r="G15" t="n">
         <v>9</v>
@@ -1087,10 +1087,10 @@
         <v>12.6760563380282</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="J15" t="n">
-        <v>9.43396226415094</v>
+        <v>7.88530465949821</v>
       </c>
       <c r="K15" t="n">
         <v>7</v>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>6981</v>
+        <v>34191</v>
       </c>
       <c r="F16" t="n">
-        <v>8.27083703572063</v>
+        <v>5.78480935558533</v>
       </c>
       <c r="G16" t="n">
         <v>4</v>
@@ -1125,10 +1125,10 @@
         <v>5.63380281690141</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J16" t="n">
-        <v>5.66037735849057</v>
+        <v>3.9426523297491</v>
       </c>
       <c r="K16" t="n">
         <v>4</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>3017</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.510449235933461</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1163,10 +1163,10 @@
         <v>1.40845070422535</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.716845878136201</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>11302</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1.91219664054358</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1201,10 +1201,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>3.2258064516129</v>
       </c>
       <c r="K18" t="n">
         <v>1</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>150</v>
+        <v>23985</v>
       </c>
       <c r="F19" t="n">
-        <v>0.177714590367869</v>
+        <v>4.05804604702156</v>
       </c>
       <c r="G19" t="n">
         <v>9</v>
@@ -1239,10 +1239,10 @@
         <v>12.6760563380282</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="J19" t="n">
-        <v>1.88679245283019</v>
+        <v>5.37634408602151</v>
       </c>
       <c r="K19" t="n">
         <v>4</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>945</v>
+        <v>34337</v>
       </c>
       <c r="F20" t="n">
-        <v>1.11960191931758</v>
+        <v>5.8095112410498</v>
       </c>
       <c r="G20" t="n">
         <v>8</v>
@@ -1277,10 +1277,10 @@
         <v>11.2676056338028</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="J20" t="n">
-        <v>1.88679245283019</v>
+        <v>6.45161290322581</v>
       </c>
       <c r="K20" t="n">
         <v>3</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>935</v>
+        <v>26688</v>
       </c>
       <c r="F21" t="n">
-        <v>1.10775427995972</v>
+        <v>4.51536931010679</v>
       </c>
       <c r="G21" t="n">
         <v>2</v>
@@ -1315,10 +1315,10 @@
         <v>2.8169014084507</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J21" t="n">
-        <v>1.88679245283019</v>
+        <v>4.3010752688172</v>
       </c>
       <c r="K21" t="n">
         <v>2</v>
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>847</v>
+        <v>2734</v>
       </c>
       <c r="F22" t="n">
-        <v>1.00349505361057</v>
+        <v>0.462568183971522</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>1.88679245283019</v>
+        <v>0.716845878136201</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>1485</v>
+        <v>6336</v>
       </c>
       <c r="F23" t="n">
-        <v>1.75937444464191</v>
+        <v>1.07199415275917</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J23" t="n">
-        <v>3.77358490566038</v>
+        <v>1.4336917562724</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>3564</v>
+        <v>13329</v>
       </c>
       <c r="F24" t="n">
-        <v>4.22249866714057</v>
+        <v>2.25514679010842</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1429,10 +1429,10 @@
         <v>1.40845070422535</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J24" t="n">
-        <v>3.77358490566038</v>
+        <v>1.7921146953405</v>
       </c>
       <c r="K24" t="n">
         <v>2</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>1749</v>
+        <v>22387</v>
       </c>
       <c r="F25" t="n">
-        <v>2.07215212368935</v>
+        <v>3.78767883488312</v>
       </c>
       <c r="G25" t="n">
         <v>3</v>
@@ -1467,10 +1467,10 @@
         <v>4.22535211267606</v>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J25" t="n">
-        <v>3.77358490566038</v>
+        <v>3.2258064516129</v>
       </c>
       <c r="K25" t="n">
         <v>1</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>836</v>
+        <v>24297</v>
       </c>
       <c r="F26" t="n">
-        <v>0.990462650316924</v>
+        <v>4.11083363787713</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1505,10 +1505,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J26" t="n">
-        <v>1.88679245283019</v>
+        <v>2.5089605734767</v>
       </c>
       <c r="K26" t="n">
         <v>1</v>
